--- a/Datos/Anuario2024/090302_EnseñanzasDanza.xlsx
+++ b/Datos/Anuario2024/090302_EnseñanzasDanza.xlsx
@@ -1,14 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr codeName="ThisWorkbook"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\Tomas\AplAnu2024\System\Xls_Cast\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-15" yWindow="4770" windowWidth="15480" windowHeight="4830" tabRatio="725" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="-15" yWindow="4770" windowWidth="15480" windowHeight="4830" tabRatio="725"/>
   </bookViews>
   <sheets>
-    <sheet name="0" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="0" sheetId="157" r:id="rId1"/>
+    <sheet name="1" sheetId="166" r:id="rId2"/>
+    <sheet name="2" sheetId="165" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_R1_1">#REF!</definedName>
@@ -51,110 +57,208 @@
     <definedName name="_R5_5">#REF!</definedName>
     <definedName name="_R5_6">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="152511" fullCalcOnLoad="1"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="30">
+  <si>
+    <t>Grado Elemental</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Danza Española</t>
+  </si>
+  <si>
+    <t>Nota: Datos provisionales.</t>
+  </si>
+  <si>
+    <t>Coreografia y técnicas de interpretación</t>
+  </si>
+  <si>
+    <t>Alumnado graduado</t>
+  </si>
+  <si>
+    <t>Alumnado matriculado</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Especialidad</t>
+  </si>
+  <si>
+    <t>Categoría</t>
+  </si>
+  <si>
+    <t>Grado Profesional</t>
+  </si>
+  <si>
+    <t>Profesorado Música y Artes Escénicas</t>
+  </si>
+  <si>
+    <t>Profesorado Especialista</t>
+  </si>
+  <si>
+    <t>Mujeres</t>
+  </si>
+  <si>
+    <t>Pedagogía de la danza</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Danza Clásica</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Danza Contemporánea</t>
+  </si>
+  <si>
+    <t>Catedrático de Música y Artes Escénicas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Otro profesorado </t>
+  </si>
+  <si>
+    <t>Profesor Especialista</t>
+  </si>
+  <si>
+    <t>Profesorado. Curso 2022/23</t>
+  </si>
+  <si>
+    <t>ENSEÑANZA DE DANZA</t>
+  </si>
+  <si>
+    <t>2. Conservatorio Superior de Danza</t>
+  </si>
+  <si>
+    <t>1. Conservatorio Profesional de Danza</t>
+  </si>
+  <si>
+    <t>Hombres</t>
+  </si>
+  <si>
+    <t>Catedrático de Música y Artes Escènicas</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Curso 2023/24</t>
+  </si>
+  <si>
+    <t>Curso 2022/23</t>
+  </si>
+  <si>
+    <t>Profesorado. Curso 2023/24</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Fuente: Servicio de Evaluación y Estudios. Conselleria de Educación, Universidades y Empleo.</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="5">
     <numFmt numFmtId="164" formatCode="#,##0.00&quot; &quot;[$€-C0A];[Red]&quot;-&quot;#,##0.00&quot; &quot;[$€-C0A]"/>
-    <numFmt numFmtId="165" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="166" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="167" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="168" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="15">
     <font>
+      <sz val="10"/>
       <name val="Arial"/>
-      <sz val="10"/>
     </font>
     <font>
+      <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
-      <sz val="10"/>
     </font>
     <font>
+      <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
-      <sz val="10"/>
     </font>
     <font>
+      <sz val="10"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-      <sz val="10"/>
     </font>
     <font>
+      <b/>
+      <sz val="12"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-      <b val="1"/>
-      <sz val="12"/>
     </font>
     <font>
+      <b/>
+      <sz val="10"/>
+      <color indexed="9"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-      <b val="1"/>
-      <color indexed="9"/>
-      <sz val="10"/>
     </font>
     <font>
+      <i/>
+      <sz val="8"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-      <i val="1"/>
-      <sz val="8"/>
     </font>
     <font>
+      <b/>
+      <sz val="10"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-      <b val="1"/>
-      <sz val="10"/>
     </font>
     <font>
+      <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
-      <sz val="10"/>
     </font>
     <font>
+      <b/>
+      <i/>
+      <sz val="16"/>
+      <color theme="1"/>
       <name val="Arial1"/>
-      <b val="1"/>
-      <i val="1"/>
-      <color theme="1"/>
-      <sz val="16"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Arial1"/>
-      <color theme="1"/>
-      <sz val="11"/>
     </font>
     <font>
+      <b/>
+      <i/>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Arial1"/>
-      <b val="1"/>
-      <i val="1"/>
-      <color theme="1"/>
-      <sz val="11"/>
-      <u val="single"/>
     </font>
     <font>
+      <u/>
+      <sz val="10"/>
+      <color indexed="61"/>
       <name val="Arial"/>
       <family val="2"/>
-      <color indexed="61"/>
-      <sz val="10"/>
-      <u val="single"/>
     </font>
     <font>
+      <u/>
+      <sz val="10"/>
+      <color indexed="12"/>
       <name val="Arial"/>
       <family val="2"/>
-      <color indexed="12"/>
-      <sz val="10"/>
-      <u val="single"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
-      <color rgb="FF000000"/>
-      <sz val="10"/>
     </font>
   </fonts>
   <fills count="4">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -192,113 +296,113 @@
   </borders>
   <cellStyleXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
       <alignment horizontal="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="11" fillId="0" borderId="0"/>
-    <xf numFmtId="41" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
-      <protection locked="0" hidden="0"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+  <cellXfs count="28">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="14">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Heading" xfId="1"/>
-    <cellStyle name="Heading1" xfId="2"/>
-    <cellStyle name="Normal 2" xfId="3"/>
-    <cellStyle name="Normal 3" xfId="4"/>
-    <cellStyle name="Result" xfId="5"/>
-    <cellStyle name="Result2" xfId="6"/>
     <cellStyle name="Comma [0]_Apoyo_PDI" xfId="7"/>
     <cellStyle name="Comma_Apoyo_PDI" xfId="8"/>
     <cellStyle name="Currency [0]_Apoyo_PDI" xfId="9"/>
     <cellStyle name="Currency_Apoyo_PDI" xfId="10"/>
     <cellStyle name="Followed Hyperlink_Apoyo_PDI" xfId="11"/>
+    <cellStyle name="Heading" xfId="1"/>
+    <cellStyle name="Heading1" xfId="2"/>
     <cellStyle name="Hyperlink_Apoyo_PDI" xfId="12"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="3"/>
+    <cellStyle name="Normal 3" xfId="4"/>
     <cellStyle name="Normal 5" xfId="13"/>
+    <cellStyle name="Result" xfId="5"/>
+    <cellStyle name="Result2" xfId="6"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
@@ -367,7 +471,18 @@
       <rgbColor rgb="00333399"/>
       <rgbColor rgb="00333333"/>
     </indexedColors>
+    <mruColors>
+      <color rgb="FFFFE6E6"/>
+    </mruColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -657,783 +772,699 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Hoja99">
-    <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
   <cols>
-    <col width="34.7109375" customWidth="1" style="1" min="1" max="1"/>
+    <col min="1" max="1" width="34.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1" s="1">
-      <c r="A1" s="27" t="inlineStr">
-        <is>
-          <t>ENSEÑANZA DE DANZA</t>
-        </is>
+    <row r="1" spans="1:1" ht="15.75" customHeight="1">
+      <c r="A1" s="3" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.3937007874015748" right="0.3937007874015748" top="0.5905511811023622" bottom="0.5905511811023622" header="0" footer="0"/>
-  <pageSetup orientation="portrait" paperSize="9" horizontalDpi="300" verticalDpi="300"/>
+  <phoneticPr fontId="0" type="noConversion"/>
+  <pageMargins left="0.39370078740157477" right="0.39370078740157477" top="0.59055118110236215" bottom="0.59055118110236215" header="0" footer="0"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
-    <oddHeader>&amp;L&amp;"Times New Roman,Normal"&amp;9 Oficina d'Estadística&amp;R&amp;"Times New Roman,Normal"&amp;9 Ajuntament de València</oddHeader>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
+    <oddHeader>&amp;L&amp;"Times New Roman,Normal"&amp;9Oficina d'Estadística&amp;R&amp;"Times New Roman,Normal"&amp;9Ajuntament de València</oddHeader>
   </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Hoja103">
-    <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:G19"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
   <cols>
-    <col width="34.7109375" customWidth="1" style="1" min="1" max="1"/>
-    <col width="8.7109375" customWidth="1" style="1" min="2" max="7"/>
-    <col width="11.42578125" customWidth="1" style="1" min="8" max="16384"/>
+    <col min="1" max="1" width="34.7109375" style="1" customWidth="1"/>
+    <col min="2" max="7" width="8.7109375" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1" s="1">
-      <c r="A1" s="27" t="inlineStr">
-        <is>
-          <t>1. Conservatorio Profesional de Danza</t>
-        </is>
-      </c>
-      <c r="B1" s="7" t="n"/>
-      <c r="C1" s="7" t="n"/>
-      <c r="D1" s="7" t="n"/>
-      <c r="E1" s="7" t="n"/>
-      <c r="F1" s="7" t="n"/>
-      <c r="G1" s="7" t="n"/>
-    </row>
-    <row r="2">
-      <c r="A2" s="7" t="n"/>
-      <c r="B2" s="7" t="n"/>
-      <c r="C2" s="7" t="n"/>
-      <c r="D2" s="7" t="n"/>
-      <c r="E2" s="7" t="n"/>
-      <c r="F2" s="7" t="n"/>
-      <c r="G2" s="7" t="n"/>
-    </row>
-    <row r="3" ht="15" customHeight="1" s="1">
-      <c r="A3" s="4" t="n"/>
-      <c r="B3" s="24" t="inlineStr">
-        <is>
-          <t>Alumnado matriculado</t>
-        </is>
-      </c>
-      <c r="D3" s="28" t="n"/>
-      <c r="E3" s="25" t="inlineStr">
-        <is>
-          <t>Alumnado graduado</t>
-        </is>
-      </c>
-    </row>
-    <row r="4" ht="15" customHeight="1" s="1">
-      <c r="A4" s="4" t="inlineStr">
-        <is>
-          <t>Especialidad</t>
-        </is>
-      </c>
-      <c r="B4" s="24" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Curso 2023/24</t>
-        </is>
-      </c>
-      <c r="D4" s="28" t="n"/>
-      <c r="E4" s="25" t="inlineStr">
-        <is>
-          <t>Curso 2022/23</t>
-        </is>
-      </c>
-    </row>
-    <row r="5" ht="15" customHeight="1" s="1">
-      <c r="A5" s="4" t="n"/>
-      <c r="B5" s="26" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="C5" s="26" t="inlineStr">
-        <is>
-          <t>Hombres</t>
-        </is>
-      </c>
-      <c r="D5" s="16" t="inlineStr">
-        <is>
-          <t>Mujeres</t>
-        </is>
-      </c>
-      <c r="E5" s="26" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="F5" s="26" t="inlineStr">
-        <is>
-          <t>Hombres</t>
-        </is>
-      </c>
-      <c r="G5" s="26" t="inlineStr">
-        <is>
-          <t>Mujeres</t>
-        </is>
-      </c>
-    </row>
-    <row r="6" ht="15" customHeight="1" s="1">
-      <c r="A6" s="7" t="inlineStr">
-        <is>
-          <t>Grado Elemental</t>
-        </is>
-      </c>
-      <c r="B6" s="20" t="n">
+    <row r="1" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A1" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="7"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+    </row>
+    <row r="3" spans="1:7" ht="15" customHeight="1">
+      <c r="A3" s="4"/>
+      <c r="B3" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="23"/>
+      <c r="D3" s="24"/>
+      <c r="E3" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" s="25"/>
+      <c r="G3" s="25"/>
+    </row>
+    <row r="4" spans="1:7" ht="15" customHeight="1">
+      <c r="A4" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" s="23"/>
+      <c r="D4" s="24"/>
+      <c r="E4" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="F4" s="25"/>
+      <c r="G4" s="25"/>
+    </row>
+    <row r="5" spans="1:7" ht="15" customHeight="1">
+      <c r="A5" s="4"/>
+      <c r="B5" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="15" customHeight="1">
+      <c r="A6" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="9">
         <v>130</v>
       </c>
-      <c r="C6" s="20" t="n">
+      <c r="C6" s="19">
         <v>12</v>
       </c>
-      <c r="D6" s="20" t="n">
+      <c r="D6" s="19">
         <v>118</v>
       </c>
-      <c r="E6" s="20" t="n">
+      <c r="E6" s="9">
         <v>27</v>
       </c>
-      <c r="F6" s="7" t="n">
+      <c r="F6" s="7">
         <v>1</v>
       </c>
-      <c r="G6" s="7" t="n">
+      <c r="G6" s="7">
         <v>26</v>
       </c>
     </row>
-    <row r="7" ht="15" customHeight="1" s="1">
-      <c r="A7" s="12" t="inlineStr">
-        <is>
-          <t>Grado Profesional</t>
-        </is>
-      </c>
-      <c r="B7" s="6" t="n">
+    <row r="7" spans="1:7" ht="15" customHeight="1">
+      <c r="A7" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="6">
         <v>216</v>
       </c>
-      <c r="C7" s="6" t="n">
+      <c r="C7" s="6">
         <v>30</v>
       </c>
-      <c r="D7" s="6" t="n">
+      <c r="D7" s="6">
         <v>304</v>
       </c>
-      <c r="E7" s="6" t="n">
+      <c r="E7" s="6">
         <v>31</v>
       </c>
-      <c r="F7" s="22" t="n">
+      <c r="F7" s="18">
         <v>7</v>
       </c>
-      <c r="G7" s="22" t="n">
+      <c r="G7" s="18">
         <v>24</v>
       </c>
     </row>
-    <row r="8" ht="15" customHeight="1" s="1">
-      <c r="A8" s="14" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  Danza Española</t>
-        </is>
-      </c>
-      <c r="B8" s="20" t="n">
+    <row r="8" spans="1:7" ht="15" customHeight="1">
+      <c r="A8" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8" s="9">
         <v>56</v>
       </c>
-      <c r="C8" s="20" t="n">
+      <c r="C8" s="19">
         <v>7</v>
       </c>
-      <c r="D8" s="20" t="n">
+      <c r="D8" s="19">
         <v>49</v>
       </c>
-      <c r="E8" s="20" t="n">
+      <c r="E8" s="9">
         <v>11</v>
       </c>
-      <c r="F8" s="7" t="n">
+      <c r="F8" s="7">
         <v>4</v>
       </c>
-      <c r="G8" s="7" t="n">
+      <c r="G8" s="7">
         <v>7</v>
       </c>
     </row>
-    <row r="9" ht="15" customHeight="1" s="1">
-      <c r="A9" s="11" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  Danza Clásica</t>
-        </is>
-      </c>
-      <c r="B9" s="6" t="n">
+    <row r="9" spans="1:7" ht="15" customHeight="1">
+      <c r="A9" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="6">
         <v>83</v>
       </c>
-      <c r="C9" s="6" t="n">
+      <c r="C9" s="6">
         <v>15</v>
       </c>
-      <c r="D9" s="6" t="n">
+      <c r="D9" s="6">
         <v>68</v>
       </c>
-      <c r="E9" s="6" t="n">
+      <c r="E9" s="6">
         <v>10</v>
       </c>
-      <c r="F9" s="22" t="n">
+      <c r="F9" s="18">
         <v>2</v>
       </c>
-      <c r="G9" s="22" t="n">
+      <c r="G9" s="18">
         <v>8</v>
       </c>
     </row>
-    <row r="10" ht="15" customHeight="1" s="1">
-      <c r="A10" s="14" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  Danza Contemporánea</t>
-        </is>
-      </c>
-      <c r="B10" s="20" t="n">
+    <row r="10" spans="1:7" ht="15" customHeight="1">
+      <c r="A10" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="9">
         <v>77</v>
       </c>
-      <c r="C10" s="20" t="n">
+      <c r="C10" s="19">
         <v>8</v>
       </c>
-      <c r="D10" s="20" t="n">
+      <c r="D10" s="19">
         <v>69</v>
       </c>
-      <c r="E10" s="20" t="n">
+      <c r="E10" s="9">
         <v>10</v>
       </c>
-      <c r="F10" s="7" t="n">
+      <c r="F10" s="7">
         <v>1</v>
       </c>
-      <c r="G10" s="7" t="n">
+      <c r="G10" s="7">
         <v>9</v>
       </c>
     </row>
-    <row r="11" ht="12.6" customHeight="1" s="1">
-      <c r="A11" s="14" t="n"/>
-      <c r="B11" s="7" t="n"/>
-      <c r="C11" s="7" t="n"/>
-      <c r="D11" s="7" t="n"/>
-      <c r="E11" s="20" t="n"/>
-      <c r="F11" s="20" t="n"/>
-      <c r="G11" s="20" t="n"/>
-    </row>
-    <row r="12" ht="15" customHeight="1" s="1">
-      <c r="A12" s="4" t="inlineStr">
-        <is>
-          <t>Categoría</t>
-        </is>
-      </c>
-      <c r="B12" s="25" t="inlineStr">
-        <is>
-          <t>Profesorado. Curso 2022/23</t>
-        </is>
-      </c>
-    </row>
-    <row r="13" ht="15" customHeight="1" s="1">
-      <c r="A13" s="4" t="n"/>
-      <c r="B13" s="26" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="D13" s="25" t="inlineStr">
-        <is>
-          <t>Hombres</t>
-        </is>
-      </c>
-      <c r="F13" s="25" t="inlineStr">
-        <is>
-          <t>Mujeres</t>
-        </is>
-      </c>
-    </row>
-    <row r="14" ht="15" customFormat="1" customHeight="1" s="2">
-      <c r="A14" s="15" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B14" s="21" t="n">
+    <row r="11" spans="1:7" ht="12.6" customHeight="1">
+      <c r="A11" s="14"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
+    </row>
+    <row r="12" spans="1:7" ht="15" customHeight="1">
+      <c r="A12" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" s="25"/>
+      <c r="D12" s="25"/>
+      <c r="E12" s="25"/>
+      <c r="F12" s="25"/>
+      <c r="G12" s="25"/>
+    </row>
+    <row r="13" spans="1:7" ht="15" customHeight="1">
+      <c r="A13" s="4"/>
+      <c r="B13" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" s="26"/>
+      <c r="D13" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13" s="25"/>
+      <c r="F13" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="G13" s="25"/>
+    </row>
+    <row r="14" spans="1:7" s="2" customFormat="1" ht="15" customHeight="1">
+      <c r="A14" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="B14" s="21">
         <v>40</v>
       </c>
-      <c r="D14" s="21" t="n">
+      <c r="C14" s="21"/>
+      <c r="D14" s="21">
         <v>19</v>
       </c>
-      <c r="F14" s="21" t="n">
+      <c r="E14" s="21"/>
+      <c r="F14" s="21">
         <v>21</v>
       </c>
-    </row>
-    <row r="15" ht="15" customHeight="1" s="1">
-      <c r="A15" s="11" t="inlineStr">
-        <is>
-          <t>Profesorado Música y Artes Escénicas</t>
-        </is>
-      </c>
-      <c r="B15" s="22" t="n">
+      <c r="G14" s="21"/>
+    </row>
+    <row r="15" spans="1:7" ht="15" customHeight="1">
+      <c r="A15" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B15" s="22">
         <v>36</v>
       </c>
-      <c r="D15" s="22" t="n">
+      <c r="C15" s="22"/>
+      <c r="D15" s="22">
         <v>16</v>
       </c>
-      <c r="F15" s="22" t="n">
+      <c r="E15" s="22"/>
+      <c r="F15" s="22">
         <v>20</v>
       </c>
-    </row>
-    <row r="16" ht="15" customHeight="1" s="1">
-      <c r="A16" s="14" t="inlineStr">
-        <is>
-          <t>Profesorado Especialista</t>
-        </is>
-      </c>
-      <c r="B16" s="20" t="n">
+      <c r="G15" s="22"/>
+    </row>
+    <row r="16" spans="1:7" ht="15" customHeight="1">
+      <c r="A16" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="B16" s="20">
         <v>3</v>
       </c>
-      <c r="D16" s="20" t="n">
+      <c r="C16" s="20"/>
+      <c r="D16" s="20">
         <v>3</v>
       </c>
-      <c r="F16" s="20" t="n">
+      <c r="E16" s="20"/>
+      <c r="F16" s="20">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" ht="15" customHeight="1" s="1">
-      <c r="A17" s="11" t="inlineStr">
-        <is>
-          <t>Catedrático de Música y Artes Escènicas</t>
-        </is>
-      </c>
-      <c r="B17" s="22" t="n">
+      <c r="G16" s="20"/>
+    </row>
+    <row r="17" spans="1:7" ht="15" customHeight="1">
+      <c r="A17" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="B17" s="22">
         <v>1</v>
       </c>
-      <c r="D17" s="22" t="n">
+      <c r="C17" s="22"/>
+      <c r="D17" s="22">
         <v>0</v>
       </c>
-      <c r="F17" s="22" t="n">
+      <c r="E17" s="22"/>
+      <c r="F17" s="22">
         <v>1</v>
       </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="13" t="inlineStr">
-        <is>
-          <t>Nota: Datos provisionales.</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="13" t="inlineStr">
-        <is>
-          <t>Fuente: Servicio de Evaluación y Estudios. Conselleria de Educación, Universidades y Empleo.</t>
-        </is>
+      <c r="G17" s="22"/>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="13" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="13" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="B14:C14"/>
     <mergeCell ref="B17:C17"/>
     <mergeCell ref="D17:E17"/>
     <mergeCell ref="F17:G17"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="E3:G3"/>
+    <mergeCell ref="B12:G12"/>
     <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="E4:G4"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="D15:E15"/>
     <mergeCell ref="D16:E16"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="E3:G3"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="E4:G4"/>
-    <mergeCell ref="B12:G12"/>
     <mergeCell ref="F14:G14"/>
+    <mergeCell ref="F15:G15"/>
   </mergeCells>
-  <pageMargins left="0.3937007874015748" right="0.3937007874015748" top="0.5905511811023622" bottom="0.5905511811023622" header="0" footer="0"/>
-  <pageSetup orientation="portrait" paperSize="9" horizontalDpi="300" verticalDpi="300"/>
+  <phoneticPr fontId="0" type="noConversion"/>
+  <pageMargins left="0.39370078740157477" right="0.39370078740157477" top="0.59055118110236215" bottom="0.59055118110236215" header="0" footer="0"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
-    <oddHeader>&amp;L&amp;"Times New Roman,Normal"&amp;9 Oficina d'Estadística&amp;R&amp;"Times New Roman,Normal"&amp;9 Ajuntament de València</oddHeader>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
+    <oddHeader>&amp;L&amp;"Times New Roman,Normal"&amp;9Oficina d'Estadística&amp;R&amp;"Times New Roman,Normal"&amp;9Ajuntament de València</oddHeader>
   </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Hoja104">
-    <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:L18"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
   <cols>
-    <col width="34.7109375" customWidth="1" style="1" min="1" max="1"/>
-    <col width="8.7109375" customWidth="1" style="1" min="2" max="7"/>
-    <col width="11.42578125" customWidth="1" style="1" min="8" max="16384"/>
+    <col min="1" max="1" width="34.7109375" style="1" customWidth="1"/>
+    <col min="2" max="7" width="8.7109375" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1" s="1">
-      <c r="A1" s="27" t="inlineStr">
-        <is>
-          <t>2. Conservatorio Superior de Danza</t>
-        </is>
-      </c>
-      <c r="B1" s="7" t="n"/>
-      <c r="C1" s="7" t="n"/>
-      <c r="D1" s="7" t="n"/>
-      <c r="E1" s="7" t="n"/>
-      <c r="F1" s="7" t="n"/>
-      <c r="G1" s="7" t="n"/>
-    </row>
-    <row r="2">
-      <c r="A2" s="7" t="n"/>
-      <c r="B2" s="7" t="n"/>
-      <c r="C2" s="7" t="n"/>
-      <c r="D2" s="7" t="n"/>
-      <c r="E2" s="7" t="n"/>
-      <c r="F2" s="7" t="n"/>
-      <c r="G2" s="7" t="n"/>
-    </row>
-    <row r="3" ht="15" customHeight="1" s="1">
-      <c r="A3" s="4" t="n"/>
-      <c r="B3" s="24" t="inlineStr">
-        <is>
-          <t>Alumnado matriculado</t>
-        </is>
-      </c>
-      <c r="D3" s="28" t="n"/>
-      <c r="E3" s="25" t="inlineStr">
-        <is>
-          <t>Alumnado graduado</t>
-        </is>
-      </c>
-    </row>
-    <row r="4" ht="15" customHeight="1" s="1">
-      <c r="A4" s="4" t="inlineStr">
-        <is>
-          <t>Especialidad</t>
-        </is>
-      </c>
-      <c r="B4" s="24" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Curso 2023/24</t>
-        </is>
-      </c>
-      <c r="D4" s="28" t="n"/>
-      <c r="E4" s="25" t="inlineStr">
-        <is>
-          <t>Curso 2022/23</t>
-        </is>
-      </c>
-    </row>
-    <row r="5" ht="15" customHeight="1" s="1">
-      <c r="A5" s="4" t="n"/>
-      <c r="B5" s="26" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="C5" s="26" t="inlineStr">
-        <is>
-          <t>Hombres</t>
-        </is>
-      </c>
-      <c r="D5" s="16" t="inlineStr">
-        <is>
-          <t>Mujeres</t>
-        </is>
-      </c>
-      <c r="E5" s="26" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="F5" s="26" t="inlineStr">
-        <is>
-          <t>Hombres</t>
-        </is>
-      </c>
-      <c r="G5" s="26" t="inlineStr">
-        <is>
-          <t>Mujeres</t>
-        </is>
-      </c>
-    </row>
-    <row r="6" ht="15" customHeight="1" s="1">
-      <c r="A6" s="15" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B6" s="21" t="n">
+    <row r="1" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A1" s="27" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="7"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+    </row>
+    <row r="3" spans="1:7" ht="15" customHeight="1">
+      <c r="A3" s="4"/>
+      <c r="B3" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="23"/>
+      <c r="D3" s="24"/>
+      <c r="E3" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" s="25"/>
+      <c r="G3" s="25"/>
+    </row>
+    <row r="4" spans="1:7" ht="15" customHeight="1">
+      <c r="A4" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" s="23"/>
+      <c r="D4" s="24"/>
+      <c r="E4" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="F4" s="25"/>
+      <c r="G4" s="25"/>
+    </row>
+    <row r="5" spans="1:7" ht="15" customHeight="1">
+      <c r="A5" s="4"/>
+      <c r="B5" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="15" customHeight="1">
+      <c r="A6" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="17">
         <v>127</v>
       </c>
-      <c r="C6" s="21" t="n">
+      <c r="C6" s="17">
         <v>29</v>
       </c>
-      <c r="D6" s="21" t="n">
+      <c r="D6" s="17">
         <v>98</v>
       </c>
-      <c r="E6" s="21" t="n">
+      <c r="E6" s="17">
         <v>14</v>
       </c>
-      <c r="F6" s="21" t="n">
+      <c r="F6" s="17">
         <v>2</v>
       </c>
-      <c r="G6" s="21" t="n">
+      <c r="G6" s="17">
         <v>12</v>
       </c>
     </row>
-    <row r="7" ht="15" customHeight="1" s="1">
-      <c r="A7" s="11" t="inlineStr">
-        <is>
-          <t>Pedagogía de la danza</t>
-        </is>
-      </c>
-      <c r="B7" s="6" t="n">
+    <row r="7" spans="1:7" ht="15" customHeight="1">
+      <c r="A7" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="6">
         <v>48</v>
       </c>
-      <c r="C7" s="6" t="n">
+      <c r="C7" s="6">
         <v>8</v>
       </c>
-      <c r="D7" s="6" t="n">
+      <c r="D7" s="6">
         <v>40</v>
       </c>
-      <c r="E7" s="6" t="n">
+      <c r="E7" s="6">
         <v>6</v>
       </c>
-      <c r="F7" s="22" t="n">
+      <c r="F7" s="18">
         <v>1</v>
       </c>
-      <c r="G7" s="22" t="n">
+      <c r="G7" s="18">
         <v>5</v>
       </c>
     </row>
-    <row r="8" ht="15" customHeight="1" s="1">
-      <c r="A8" s="14" t="inlineStr">
-        <is>
-          <t>Coreografia y técnicas de interpretación</t>
-        </is>
-      </c>
-      <c r="B8" s="20" t="n">
+    <row r="8" spans="1:7" ht="15" customHeight="1">
+      <c r="A8" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" s="9">
         <v>79</v>
       </c>
-      <c r="C8" s="20" t="n">
+      <c r="C8" s="19">
         <v>21</v>
       </c>
-      <c r="D8" s="20" t="n">
+      <c r="D8" s="19">
         <v>58</v>
       </c>
-      <c r="E8" s="20" t="n">
+      <c r="E8" s="9">
         <v>8</v>
       </c>
-      <c r="F8" s="7" t="n">
+      <c r="F8" s="7">
         <v>1</v>
       </c>
-      <c r="G8" s="7" t="n">
+      <c r="G8" s="7">
         <v>7</v>
       </c>
     </row>
-    <row r="9" ht="14.45" customHeight="1" s="1">
-      <c r="A9" s="14" t="n"/>
-      <c r="B9" s="7" t="n"/>
-      <c r="C9" s="7" t="n"/>
-      <c r="D9" s="7" t="n"/>
-      <c r="E9" s="20" t="n"/>
-      <c r="F9" s="20" t="n"/>
-      <c r="G9" s="20" t="n"/>
-    </row>
-    <row r="10" ht="15" customHeight="1" s="1">
-      <c r="A10" s="4" t="inlineStr">
-        <is>
-          <t>Categoría</t>
-        </is>
-      </c>
-      <c r="B10" s="25" t="inlineStr">
-        <is>
-          <t>Profesorado. Curso 2023/24</t>
-        </is>
-      </c>
-    </row>
-    <row r="11" ht="15" customHeight="1" s="1">
-      <c r="A11" s="4" t="n"/>
-      <c r="B11" s="26" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="D11" s="26" t="inlineStr">
-        <is>
-          <t>Hombres</t>
-        </is>
-      </c>
-      <c r="F11" s="26" t="inlineStr">
-        <is>
-          <t>Mujeres</t>
-        </is>
-      </c>
-    </row>
-    <row r="12" ht="15" customFormat="1" customHeight="1" s="2">
-      <c r="A12" s="15" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B12" s="21" t="n">
+    <row r="9" spans="1:7" ht="14.45" customHeight="1">
+      <c r="A9" s="14"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
+    </row>
+    <row r="10" spans="1:7" ht="15" customHeight="1">
+      <c r="A10" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" s="25"/>
+      <c r="D10" s="25"/>
+      <c r="E10" s="25"/>
+      <c r="F10" s="25"/>
+      <c r="G10" s="25"/>
+    </row>
+    <row r="11" spans="1:7" ht="15" customHeight="1">
+      <c r="A11" s="4"/>
+      <c r="B11" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" s="26"/>
+      <c r="D11" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="E11" s="26"/>
+      <c r="F11" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="G11" s="26"/>
+    </row>
+    <row r="12" spans="1:7" s="2" customFormat="1" ht="15" customHeight="1">
+      <c r="A12" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="B12" s="21">
         <v>30</v>
       </c>
-      <c r="D12" s="21" t="n">
+      <c r="C12" s="21"/>
+      <c r="D12" s="21">
         <v>12</v>
       </c>
-      <c r="F12" s="21" t="n">
+      <c r="E12" s="21"/>
+      <c r="F12" s="21">
         <v>18</v>
       </c>
-    </row>
-    <row r="13" ht="15" customHeight="1" s="1">
-      <c r="A13" s="11" t="inlineStr">
-        <is>
-          <t>Profesorado Música y Artes Escénicas</t>
-        </is>
-      </c>
-      <c r="B13" s="22" t="n">
+      <c r="G12" s="21"/>
+    </row>
+    <row r="13" spans="1:7" ht="15" customHeight="1">
+      <c r="A13" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" s="22">
         <v>8</v>
       </c>
-      <c r="D13" s="22" t="n">
+      <c r="C13" s="22"/>
+      <c r="D13" s="22">
         <v>4</v>
       </c>
-      <c r="F13" s="22" t="n">
+      <c r="E13" s="22"/>
+      <c r="F13" s="22">
         <v>4</v>
       </c>
-    </row>
-    <row r="14" ht="15" customHeight="1" s="1">
-      <c r="A14" s="14" t="inlineStr">
-        <is>
-          <t>Profesor Especialista</t>
-        </is>
-      </c>
-      <c r="B14" s="20" t="n">
+      <c r="G13" s="22"/>
+    </row>
+    <row r="14" spans="1:7" ht="15" customHeight="1">
+      <c r="A14" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" s="20">
         <v>2</v>
       </c>
-      <c r="D14" s="20" t="n">
+      <c r="C14" s="20"/>
+      <c r="D14" s="20">
         <v>1</v>
       </c>
-      <c r="F14" s="20" t="n">
+      <c r="E14" s="20"/>
+      <c r="F14" s="20">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" ht="15" customHeight="1" s="1">
-      <c r="A15" s="11" t="inlineStr">
-        <is>
-          <t>Catedrático de Música y Artes Escénicas</t>
-        </is>
-      </c>
-      <c r="B15" s="22" t="n">
+      <c r="G14" s="20"/>
+    </row>
+    <row r="15" spans="1:7" ht="15" customHeight="1">
+      <c r="A15" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" s="22">
         <v>20</v>
       </c>
-      <c r="D15" s="22" t="n">
+      <c r="C15" s="22"/>
+      <c r="D15" s="22">
         <v>7</v>
       </c>
-      <c r="F15" s="22" t="n">
+      <c r="E15" s="22"/>
+      <c r="F15" s="22">
         <v>13</v>
       </c>
-    </row>
-    <row r="16" ht="15" customHeight="1" s="1">
-      <c r="A16" s="14" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Otro profesorado </t>
-        </is>
-      </c>
-      <c r="B16" s="20" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D16" s="20" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="F16" s="20" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="13" t="inlineStr">
-        <is>
-          <t>Nota: Datos provisionales.</t>
-        </is>
-      </c>
-    </row>
-    <row r="18" s="1">
-      <c r="A18" s="13" t="inlineStr">
-        <is>
-          <t>Fuente: Servicio de Evaluación y Estudios. Conselleria de Educación, Universidades y Empleo.</t>
-        </is>
-      </c>
-      <c r="L18" s="8" t="n"/>
+      <c r="G15" s="22"/>
+    </row>
+    <row r="16" spans="1:7" ht="15" customHeight="1">
+      <c r="A16" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="C16" s="20"/>
+      <c r="D16" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="E16" s="20"/>
+      <c r="F16" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="G16" s="20"/>
+    </row>
+    <row r="17" spans="1:12">
+      <c r="A17" s="13" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" customFormat="1">
+      <c r="A18" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="L18" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="E3:G3"/>
+    <mergeCell ref="B10:G10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:E11"/>
     <mergeCell ref="F11:G11"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="E4:G4"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
     <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="D16:E16"/>
     <mergeCell ref="F16:G16"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B10:G10"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="F13:G13"/>
     <mergeCell ref="F12:G12"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="E3:G3"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="E4:G4"/>
-    <mergeCell ref="F14:G14"/>
   </mergeCells>
-  <pageMargins left="0.3937007874015748" right="0.3937007874015748" top="0.5905511811023622" bottom="0.5905511811023622" header="0" footer="0"/>
-  <pageSetup orientation="portrait" paperSize="9" horizontalDpi="300" verticalDpi="300"/>
+  <phoneticPr fontId="0" type="noConversion"/>
+  <pageMargins left="0.39370078740157477" right="0.39370078740157477" top="0.59055118110236215" bottom="0.59055118110236215" header="0" footer="0"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
-    <oddHeader>&amp;L&amp;"Times New Roman,Normal"&amp;9 Oficina d'Estadística&amp;R&amp;"Times New Roman,Normal"&amp;9 Ajuntament de València</oddHeader>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
+    <oddHeader>&amp;L&amp;"Times New Roman,Normal"&amp;9Oficina d'Estadística&amp;R&amp;"Times New Roman,Normal"&amp;9Ajuntament de València</oddHeader>
   </headerFooter>
 </worksheet>
 </file>